--- a/OC_Valen_FI0123_FF1124.xlsx
+++ b/OC_Valen_FI0123_FF1124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{E878F17F-0F24-C642-8949-053BFEC580D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB39E16-4EA8-458C-ABBA-BC046AE4841F}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{E878F17F-0F24-C642-8949-053BFEC580D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05AFD056-24CA-41D1-86C1-BA1FC3136821}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="B483" sqref="B483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4279,6 +4279,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
